--- a/Timecard/Book1.xlsx
+++ b/Timecard/Book1.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\Timecard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8630AA3-23B9-4473-8B0E-3363A23C0246}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7B7892-6783-412D-9032-DF98D5117C19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{4F8F96BD-7A59-4927-BFF3-3695FB227C81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" activeTab="1" xr2:uid="{4F8F96BD-7A59-4927-BFF3-3695FB227C81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,58 +120,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>関根真一10:0019:00</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>関根真一10:0019:00</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>関根真一10:0019:00</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>関根真一10:0019:00</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>関根真一10:0019:00</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>関根真一10:0019:00</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>関根真一11:0019:00</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>関根真一12:0019:00</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>山田花子12:0019:00</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>山田花子11:0019:00</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>山田花子11:0019:00</v>
+          <cell r="A1">
+            <v>20180802</v>
           </cell>
         </row>
       </sheetData>
@@ -476,9 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D58A8D-648D-433D-BDEE-372FC3DA1C17}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -531,69 +483,69 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="str">
+      <c r="C4">
         <f>[1]file!$A1</f>
-        <v>関根真一10:0019:00</v>
+        <v>20180802</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="str">
+      <c r="C5">
         <f>[1]file!$A2</f>
-        <v>関根真一10:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" t="str">
+      <c r="C6">
         <f>[1]file!$A3</f>
-        <v>関根真一10:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" t="str">
+      <c r="C7">
         <f>[1]file!$A4</f>
-        <v>関根真一10:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="str">
+      <c r="C8">
         <f>[1]file!$A5</f>
-        <v>関根真一10:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="str">
+      <c r="C9">
         <f>[1]file!$A6</f>
-        <v>関根真一10:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="str">
+      <c r="C10">
         <f>[1]file!$A7</f>
-        <v>関根真一11:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="str">
+      <c r="C11">
         <f>[1]file!$A8</f>
-        <v>関根真一12:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="str">
+      <c r="C12">
         <f>[1]file!$A9</f>
-        <v>山田花子12:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="str">
+      <c r="C13">
         <f>[1]file!$A10</f>
-        <v>山田花子11:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="str">
+      <c r="C14">
         <f>[1]file!$A11</f>
-        <v>山田花子11:0019:00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -618,6 +570,31 @@
       <c r="C18">
         <f>[1]file!$A15</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3538E5-C4C2-4741-A9E2-F5CD0077461F}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>20180802</v>
       </c>
     </row>
   </sheetData>
